--- a/config_3.30/game_activity_config.xlsx
+++ b/config_3.30/game_activity_config.xlsx
@@ -1051,7 +1051,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2455,7 +2455,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>128</v>
@@ -2502,7 +2502,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>128</v>
@@ -2551,14 +2551,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2570,16 +2572,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2590,13 +2590,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2608,13 +2608,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
